--- a/ePICreator/Karvea.xlsx
+++ b/ePICreator/Karvea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494622CA-FF7B-4145-AD94-5A1F1232AA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB4877F-D686-4548-A113-E909F3FC80BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="181">
   <si>
     <t>id</t>
   </si>
@@ -388,9 +388,6 @@
   </si>
   <si>
     <t>YL5FZ2Y5U1</t>
-  </si>
-  <si>
-    <t>0d69fdcb-33cf-407f-8209-a6529856ab4f</t>
   </si>
   <si>
     <t>https://spor.ema.europa.eu/rmswi/</t>
@@ -1058,7 +1055,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1075,7 +1072,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1373,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A7762C-AB2F-B34F-B02E-3A163776DCB2}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1506,28 +1503,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
         <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s">
         <v>88</v>
       </c>
       <c r="J1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
         <v>143</v>
-      </c>
-      <c r="K1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" t="s">
-        <v>144</v>
       </c>
       <c r="M1" t="s">
         <v>89</v>
@@ -1569,7 +1566,7 @@
         <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1755,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1785,37 +1782,37 @@
         <v>101</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
         <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" t="s">
         <v>155</v>
       </c>
-      <c r="L1" t="s">
-        <v>156</v>
-      </c>
       <c r="M1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
@@ -1829,42 +1826,40 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>68</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="L2" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1908,13 +1903,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" t="s">
-        <v>119</v>
-      </c>
       <c r="G1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -2050,10 +2045,10 @@
         <v>72072</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -2277,10 +2272,10 @@
         <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L1" t="s">
         <v>63</v>
@@ -2292,28 +2287,28 @@
         <v>64</v>
       </c>
       <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
         <v>123</v>
-      </c>
-      <c r="P1" t="s">
-        <v>124</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V1" t="s">
         <v>169</v>
-      </c>
-      <c r="V1" t="s">
-        <v>170</v>
       </c>
       <c r="W1" t="s">
         <v>20</v>
@@ -2328,10 +2323,10 @@
         <v>65</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" t="s">
         <v>180</v>
-      </c>
-      <c r="D2" t="s">
-        <v>181</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2355,7 +2350,7 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
@@ -2370,13 +2365,13 @@
         <v>13</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T2" s="5">
         <v>100000072084</v>
@@ -2421,25 +2416,25 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
         <v>131</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>132</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>133</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>134</v>
       </c>
-      <c r="K1" t="s">
-        <v>135</v>
-      </c>
       <c r="L1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M1" t="s">
         <v>14</v>
@@ -2525,58 +2520,58 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
         <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J1" t="s">
         <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M1" t="s">
         <v>80</v>
       </c>
       <c r="N1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O1" t="s">
         <v>87</v>
       </c>
       <c r="P1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R1" t="s">
         <v>173</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>174</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>175</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>176</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>177</v>
-      </c>
-      <c r="V1" t="s">
-        <v>178</v>
       </c>
       <c r="W1" t="s">
         <v>14</v>
@@ -2594,7 +2589,7 @@
         <v>83</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -2653,22 +2648,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
         <v>97</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -2689,7 +2684,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
         <v>98</v>
